--- a/Assets/ReadExcel/Config/Excel/Localization.xlsx
+++ b/Assets/ReadExcel/Config/Excel/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChineseSimplified" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>亮度</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>英语</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>brightness</t>
-  </si>
-  <si>
-    <t>japanese</t>
   </si>
   <si>
     <t>日语</t>
@@ -102,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,12 +110,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,68 +140,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +155,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +215,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -236,11 +231,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,25 +262,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +376,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,139 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,21 +468,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -499,6 +478,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +518,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,15 +553,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1149,7 +1143,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1162,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1170,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1178,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1186,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1194,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1202,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1210,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1218,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1252,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1260,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1268,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1276,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1284,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1292,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1300,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
